--- a/Excel/Esqueletos Excel/esqueletoArticulos.xlsx
+++ b/Excel/Esqueletos Excel/esqueletoArticulos.xlsx
@@ -37,7 +37,7 @@
     <t>Equivalencia Fram(CADENA DE CARACTERES)</t>
   </si>
   <si>
-    <t>Codigo-ejemplo</t>
+    <t>Codigo-ejemplo xlsx</t>
   </si>
   <si>
     <t>descripcion ejemplo</t>
@@ -143,17 +143,17 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100">
-      <selection activeCell="F3" activeCellId="0" pane="topLeft" sqref="F3"/>
+      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.3058823529412"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.2627450980392"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.478431372549"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.8352941176471"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.0039215686275"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="37.9333333333333"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.6313725490196"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.4627450980392"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.443137254902"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.6313725490196"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.9686274509804"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.1372549019608"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="38.121568627451"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.6941176470588"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1">
@@ -219,7 +219,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6313725490196"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6941176470588"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -244,7 +244,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6313725490196"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6941176470588"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
